--- a/SGdata_PC_Combo_redacted.xlsx
+++ b/SGdata_PC_Combo_redacted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinsanzhang/Dropbox/Hurricane_Fish_Diversity/Hurricane_Impacts_on_Fishes/Community_Analysis/hurricane_fish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F26A05-5C3F-FA47-9304-D96F9A249F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87F131-123B-2545-9915-B80BC062CD75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="71">
   <si>
     <t>study</t>
   </si>
@@ -89,9 +89,6 @@
     <t>After</t>
   </si>
   <si>
-    <t>Keller_seagrass seasonality</t>
-  </si>
-  <si>
     <t>SG1</t>
   </si>
   <si>
@@ -114,21 +111,6 @@
   </si>
   <si>
     <t>NSF_Scallop_SMURFs</t>
-  </si>
-  <si>
-    <t>hap</t>
-  </si>
-  <si>
-    <t>smurf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smurf </t>
-  </si>
-  <si>
-    <t>sound scape</t>
-  </si>
-  <si>
-    <t>Trackenberg</t>
   </si>
   <si>
     <t>Column Name</t>
@@ -315,6 +297,33 @@
   </si>
   <si>
     <t>redacted</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Soundscape</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Seasonality</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1183,8 @@
   <dimension ref="A1:P230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I204" sqref="I204"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3232,7 +3241,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1">
         <v>42497</v>
@@ -3250,7 +3259,7 @@
         <v>42652</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3282,7 +3291,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1">
         <v>42497</v>
@@ -3300,7 +3309,7 @@
         <v>42652</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -3332,7 +3341,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1">
         <v>42497</v>
@@ -3350,7 +3359,7 @@
         <v>42652</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -3382,7 +3391,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1">
         <v>42497</v>
@@ -3432,7 +3441,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1">
         <v>42497</v>
@@ -3482,7 +3491,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1">
         <v>42497</v>
@@ -3532,7 +3541,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1">
         <v>42497</v>
@@ -3582,7 +3591,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1">
         <v>42497</v>
@@ -3632,7 +3641,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1">
         <v>42497</v>
@@ -3682,7 +3691,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1">
         <v>42497</v>
@@ -3700,7 +3709,7 @@
         <v>42652</v>
       </c>
       <c r="G51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -3732,7 +3741,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>42497</v>
@@ -3750,7 +3759,7 @@
         <v>42652</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -3782,7 +3791,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1">
         <v>42497</v>
@@ -3800,7 +3809,7 @@
         <v>42652</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -3832,7 +3841,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1">
         <v>42528</v>
@@ -3850,7 +3859,7 @@
         <v>42652</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -3882,7 +3891,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1">
         <v>42528</v>
@@ -3900,7 +3909,7 @@
         <v>42652</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -3932,7 +3941,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1">
         <v>42528</v>
@@ -3950,7 +3959,7 @@
         <v>42652</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -3982,7 +3991,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1">
         <v>42528</v>
@@ -4032,7 +4041,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1">
         <v>42528</v>
@@ -4082,7 +4091,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1">
         <v>42528</v>
@@ -4132,7 +4141,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1">
         <v>42528</v>
@@ -4182,7 +4191,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1">
         <v>42528</v>
@@ -4232,7 +4241,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1">
         <v>42528</v>
@@ -4282,7 +4291,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1">
         <v>42528</v>
@@ -4300,7 +4309,7 @@
         <v>42652</v>
       </c>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -4332,7 +4341,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1">
         <v>42528</v>
@@ -4350,7 +4359,7 @@
         <v>42652</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -4382,7 +4391,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1">
         <v>42528</v>
@@ -4400,7 +4409,7 @@
         <v>42652</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -4432,7 +4441,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1">
         <v>42558</v>
@@ -4450,7 +4459,7 @@
         <v>42652</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4482,7 +4491,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1">
         <v>42558</v>
@@ -4500,7 +4509,7 @@
         <v>42652</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -4532,7 +4541,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1">
         <v>42558</v>
@@ -4550,7 +4559,7 @@
         <v>42652</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -4582,7 +4591,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1">
         <v>42558</v>
@@ -4632,7 +4641,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1">
         <v>42558</v>
@@ -4682,7 +4691,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>42558</v>
@@ -4732,7 +4741,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>42558</v>
@@ -4782,7 +4791,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1">
         <v>42558</v>
@@ -4832,7 +4841,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1">
         <v>42558</v>
@@ -4882,7 +4891,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1">
         <v>42558</v>
@@ -4900,7 +4909,7 @@
         <v>42652</v>
       </c>
       <c r="G75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -4932,7 +4941,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1">
         <v>42558</v>
@@ -4950,7 +4959,7 @@
         <v>42652</v>
       </c>
       <c r="G76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -4982,7 +4991,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1">
         <v>42558</v>
@@ -5000,7 +5009,7 @@
         <v>42652</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -5032,7 +5041,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1">
         <v>42589</v>
@@ -5050,7 +5059,7 @@
         <v>42652</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -5082,7 +5091,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B79" s="1">
         <v>42589</v>
@@ -5100,7 +5109,7 @@
         <v>42652</v>
       </c>
       <c r="G79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -5132,7 +5141,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B80" s="1">
         <v>42589</v>
@@ -5150,7 +5159,7 @@
         <v>42652</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -5182,7 +5191,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B81" s="1">
         <v>42589</v>
@@ -5232,7 +5241,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1">
         <v>42589</v>
@@ -5282,7 +5291,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B83" s="1">
         <v>42589</v>
@@ -5332,7 +5341,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B84" s="1">
         <v>42589</v>
@@ -5382,7 +5391,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B85" s="1">
         <v>42589</v>
@@ -5432,7 +5441,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B86" s="1">
         <v>42589</v>
@@ -5482,7 +5491,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B87" s="1">
         <v>42589</v>
@@ -5500,7 +5509,7 @@
         <v>42652</v>
       </c>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -5532,7 +5541,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B88" s="1">
         <v>42589</v>
@@ -5550,7 +5559,7 @@
         <v>42652</v>
       </c>
       <c r="G88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -5582,7 +5591,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B89" s="1">
         <v>42589</v>
@@ -5600,7 +5609,7 @@
         <v>42652</v>
       </c>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -5632,7 +5641,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B90" s="1">
         <v>42620</v>
@@ -5650,7 +5659,7 @@
         <v>42652</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -5682,7 +5691,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B91" s="1">
         <v>42620</v>
@@ -5700,7 +5709,7 @@
         <v>42652</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -5732,7 +5741,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B92" s="1">
         <v>42620</v>
@@ -5750,7 +5759,7 @@
         <v>42652</v>
       </c>
       <c r="G92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -5782,7 +5791,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B93" s="1">
         <v>42620</v>
@@ -5832,7 +5841,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B94" s="1">
         <v>42620</v>
@@ -5882,7 +5891,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B95" s="1">
         <v>42620</v>
@@ -5932,7 +5941,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B96" s="1">
         <v>42620</v>
@@ -5982,7 +5991,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B97" s="1">
         <v>42620</v>
@@ -6032,7 +6041,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B98" s="1">
         <v>42620</v>
@@ -6082,7 +6091,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B99" s="1">
         <v>42620</v>
@@ -6100,7 +6109,7 @@
         <v>42652</v>
       </c>
       <c r="G99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -6132,7 +6141,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B100" s="1">
         <v>42620</v>
@@ -6150,7 +6159,7 @@
         <v>42652</v>
       </c>
       <c r="G100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -6182,7 +6191,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B101" s="1">
         <v>42620</v>
@@ -6200,7 +6209,7 @@
         <v>42652</v>
       </c>
       <c r="G101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -6232,7 +6241,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B102" s="1">
         <v>42650</v>
@@ -6250,7 +6259,7 @@
         <v>42652</v>
       </c>
       <c r="G102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -6282,7 +6291,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B103" s="1">
         <v>42650</v>
@@ -6300,7 +6309,7 @@
         <v>42652</v>
       </c>
       <c r="G103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -6332,7 +6341,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B104" s="1">
         <v>42650</v>
@@ -6350,7 +6359,7 @@
         <v>42652</v>
       </c>
       <c r="G104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -6382,7 +6391,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B105" s="1">
         <v>42650</v>
@@ -6432,7 +6441,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B106" s="1">
         <v>42650</v>
@@ -6482,7 +6491,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B107" s="1">
         <v>42650</v>
@@ -6532,7 +6541,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B108" s="1">
         <v>42650</v>
@@ -6582,7 +6591,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B109" s="1">
         <v>42650</v>
@@ -6632,7 +6641,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B110" s="1">
         <v>42650</v>
@@ -6682,7 +6691,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B111" s="1">
         <v>42650</v>
@@ -6700,7 +6709,7 @@
         <v>42652</v>
       </c>
       <c r="G111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -6732,7 +6741,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B112" s="1">
         <v>42650</v>
@@ -6750,7 +6759,7 @@
         <v>42652</v>
       </c>
       <c r="G112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -6782,7 +6791,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B113" s="1">
         <v>42650</v>
@@ -6800,7 +6809,7 @@
         <v>42652</v>
       </c>
       <c r="G113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -6832,7 +6841,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B114" s="1">
         <v>43584</v>
@@ -6882,7 +6891,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B115" s="1">
         <v>43584</v>
@@ -6932,7 +6941,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B116" s="1">
         <v>43584</v>
@@ -6982,7 +6991,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B117" s="1">
         <v>43584</v>
@@ -7000,7 +7009,7 @@
         <v>43714</v>
       </c>
       <c r="G117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -7032,7 +7041,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B118" s="1">
         <v>43584</v>
@@ -7050,7 +7059,7 @@
         <v>43714</v>
       </c>
       <c r="G118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -7082,7 +7091,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B119" s="1">
         <v>43584</v>
@@ -7100,7 +7109,7 @@
         <v>43714</v>
       </c>
       <c r="G119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -7132,7 +7141,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B120" s="1">
         <v>43585</v>
@@ -7150,7 +7159,7 @@
         <v>43714</v>
       </c>
       <c r="G120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -7182,7 +7191,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B121" s="1">
         <v>43585</v>
@@ -7200,7 +7209,7 @@
         <v>43714</v>
       </c>
       <c r="G121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -7232,7 +7241,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B122" s="1">
         <v>43585</v>
@@ -7250,7 +7259,7 @@
         <v>43714</v>
       </c>
       <c r="G122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -7282,7 +7291,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B123" s="1">
         <v>43585</v>
@@ -7332,7 +7341,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B124" s="1">
         <v>43585</v>
@@ -7382,7 +7391,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B125" s="1">
         <v>43585</v>
@@ -7432,7 +7441,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B126" s="1">
         <v>43613</v>
@@ -7450,10 +7459,10 @@
         <v>43714</v>
       </c>
       <c r="G126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I126">
         <v>11</v>
@@ -7482,7 +7491,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B127" s="1">
         <v>43613</v>
@@ -7500,10 +7509,10 @@
         <v>43714</v>
       </c>
       <c r="G127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I127">
         <v>11</v>
@@ -7532,7 +7541,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B128" s="1">
         <v>43613</v>
@@ -7550,10 +7559,10 @@
         <v>43714</v>
       </c>
       <c r="G128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I128">
         <v>11</v>
@@ -7582,7 +7591,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129" s="1">
         <v>43613</v>
@@ -7632,7 +7641,7 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B130" s="1">
         <v>43613</v>
@@ -7682,7 +7691,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B131" s="1">
         <v>43613</v>
@@ -7732,7 +7741,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B132" s="1">
         <v>43613</v>
@@ -7782,7 +7791,7 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B133" s="1">
         <v>43613</v>
@@ -7832,7 +7841,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B134" s="1">
         <v>43613</v>
@@ -7850,7 +7859,7 @@
         <v>43714</v>
       </c>
       <c r="G134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -7882,7 +7891,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B135" s="1">
         <v>43613</v>
@@ -7900,7 +7909,7 @@
         <v>43714</v>
       </c>
       <c r="G135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -7932,7 +7941,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B136" s="1">
         <v>43658</v>
@@ -7950,7 +7959,7 @@
         <v>43714</v>
       </c>
       <c r="G136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -7982,7 +7991,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B137" s="1">
         <v>43658</v>
@@ -8000,7 +8009,7 @@
         <v>43714</v>
       </c>
       <c r="G137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -8032,7 +8041,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B138" s="1">
         <v>43658</v>
@@ -8050,7 +8059,7 @@
         <v>43714</v>
       </c>
       <c r="G138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -8082,7 +8091,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B139" s="1">
         <v>43658</v>
@@ -8132,7 +8141,7 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B140" s="1">
         <v>43658</v>
@@ -8182,7 +8191,7 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B141" s="1">
         <v>43658</v>
@@ -8232,7 +8241,7 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B142" s="1">
         <v>43658</v>
@@ -8282,7 +8291,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B143" s="1">
         <v>43658</v>
@@ -8332,7 +8341,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B144" s="1">
         <v>43658</v>
@@ -8382,7 +8391,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B145" s="1">
         <v>43658</v>
@@ -8400,7 +8409,7 @@
         <v>43714</v>
       </c>
       <c r="G145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -8432,7 +8441,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B146" s="1">
         <v>43658</v>
@@ -8450,7 +8459,7 @@
         <v>43714</v>
       </c>
       <c r="G146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -8482,7 +8491,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B147" s="1">
         <v>43658</v>
@@ -8500,7 +8509,7 @@
         <v>43714</v>
       </c>
       <c r="G147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -8532,7 +8541,7 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B148" s="1">
         <v>43703</v>
@@ -8550,7 +8559,7 @@
         <v>43714</v>
       </c>
       <c r="G148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -8582,7 +8591,7 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B149" s="1">
         <v>43703</v>
@@ -8600,7 +8609,7 @@
         <v>43714</v>
       </c>
       <c r="G149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -8632,7 +8641,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B150" s="1">
         <v>43703</v>
@@ -8650,7 +8659,7 @@
         <v>43714</v>
       </c>
       <c r="G150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -8682,7 +8691,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B151" s="1">
         <v>43703</v>
@@ -8732,7 +8741,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B152" s="1">
         <v>43703</v>
@@ -8782,7 +8791,7 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B153" s="1">
         <v>43703</v>
@@ -8832,7 +8841,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B154" s="1">
         <v>43703</v>
@@ -8882,7 +8891,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B155" s="1">
         <v>43703</v>
@@ -8932,7 +8941,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B156" s="1">
         <v>43703</v>
@@ -8950,7 +8959,7 @@
         <v>43714</v>
       </c>
       <c r="G156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -8982,7 +8991,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B157" s="1">
         <v>43703</v>
@@ -9000,7 +9009,7 @@
         <v>43714</v>
       </c>
       <c r="G157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -9032,7 +9041,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B158" s="1">
         <v>43703</v>
@@ -9050,7 +9059,7 @@
         <v>43714</v>
       </c>
       <c r="G158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -9082,7 +9091,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B159" s="1">
         <v>43732</v>
@@ -9100,7 +9109,7 @@
         <v>43714</v>
       </c>
       <c r="G159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -9109,13 +9118,13 @@
         <v>11</v>
       </c>
       <c r="J159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K159">
         <v>12.2727272727273</v>
       </c>
       <c r="L159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M159">
         <v>12.2727272727273</v>
@@ -9132,7 +9141,7 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B160" s="1">
         <v>43732</v>
@@ -9150,7 +9159,7 @@
         <v>43714</v>
       </c>
       <c r="G160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -9159,13 +9168,13 @@
         <v>11</v>
       </c>
       <c r="J160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K160">
         <v>16.363636363636399</v>
       </c>
       <c r="L160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M160">
         <v>16.363636363636399</v>
@@ -9182,7 +9191,7 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B161" s="1">
         <v>43732</v>
@@ -9200,7 +9209,7 @@
         <v>43714</v>
       </c>
       <c r="G161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -9209,13 +9218,13 @@
         <v>11</v>
       </c>
       <c r="J161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K161">
         <v>6.3636363636363598</v>
       </c>
       <c r="L161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M161">
         <v>6.3636363636363598</v>
@@ -9232,7 +9241,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B162" s="1">
         <v>43732</v>
@@ -9259,13 +9268,13 @@
         <v>11</v>
       </c>
       <c r="J162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K162">
         <v>62.272727272727302</v>
       </c>
       <c r="L162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M162">
         <v>62.272727272727302</v>
@@ -9282,7 +9291,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B163" s="1">
         <v>43732</v>
@@ -9309,13 +9318,13 @@
         <v>11</v>
       </c>
       <c r="J163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K163">
         <v>65.454545454545496</v>
       </c>
       <c r="L163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M163">
         <v>65.454545454545496</v>
@@ -9332,7 +9341,7 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B164" s="1">
         <v>43732</v>
@@ -9359,13 +9368,13 @@
         <v>11</v>
       </c>
       <c r="J164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K164">
         <v>77.727272727272705</v>
       </c>
       <c r="L164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M164">
         <v>77.727272727272705</v>
@@ -9382,7 +9391,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B165" s="1">
         <v>43732</v>
@@ -9409,13 +9418,13 @@
         <v>11</v>
       </c>
       <c r="J165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K165">
         <v>44.545454545454596</v>
       </c>
       <c r="L165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M165">
         <v>44.545454545454596</v>
@@ -9432,7 +9441,7 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B166" s="1">
         <v>43732</v>
@@ -9459,13 +9468,13 @@
         <v>11</v>
       </c>
       <c r="J166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K166">
         <v>78.181818181818201</v>
       </c>
       <c r="L166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M166">
         <v>78.181818181818201</v>
@@ -9482,7 +9491,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B167" s="1">
         <v>43732</v>
@@ -9509,13 +9518,13 @@
         <v>11</v>
       </c>
       <c r="J167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K167">
         <v>13.636363636363599</v>
       </c>
       <c r="L167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M167">
         <v>13.636363636363599</v>
@@ -9532,7 +9541,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B168" s="1">
         <v>43732</v>
@@ -9550,7 +9559,7 @@
         <v>43714</v>
       </c>
       <c r="G168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -9559,13 +9568,13 @@
         <v>11</v>
       </c>
       <c r="J168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K168">
         <v>56.363636363636402</v>
       </c>
       <c r="L168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M168">
         <v>56.363636363636402</v>
@@ -9582,7 +9591,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B169" s="1">
         <v>43732</v>
@@ -9600,7 +9609,7 @@
         <v>43714</v>
       </c>
       <c r="G169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -9609,13 +9618,13 @@
         <v>11</v>
       </c>
       <c r="J169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K169">
         <v>73.818181818181799</v>
       </c>
       <c r="L169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M169">
         <v>73.818181818181799</v>
@@ -9632,7 +9641,7 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B170" s="1">
         <v>43732</v>
@@ -9650,7 +9659,7 @@
         <v>43714</v>
       </c>
       <c r="G170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H170">
         <v>3</v>
@@ -9659,13 +9668,13 @@
         <v>11</v>
       </c>
       <c r="J170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K170">
         <v>77.272727272727295</v>
       </c>
       <c r="L170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M170">
         <v>77.272727272727295</v>
@@ -9682,7 +9691,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B171" s="1">
         <v>43531</v>
@@ -9703,7 +9712,7 @@
         <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I171">
         <v>6</v>
@@ -9732,7 +9741,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B172" s="1">
         <v>43531</v>
@@ -9753,7 +9762,7 @@
         <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I172">
         <v>6</v>
@@ -9782,7 +9791,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B173" s="1">
         <v>43562</v>
@@ -9803,7 +9812,7 @@
         <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I173">
         <v>18</v>
@@ -9832,7 +9841,7 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B174" s="1">
         <v>43562</v>
@@ -9853,7 +9862,7 @@
         <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I174">
         <v>16</v>
@@ -9882,7 +9891,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B175" s="1">
         <v>43562</v>
@@ -9903,7 +9912,7 @@
         <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -9932,7 +9941,7 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B176" s="1">
         <v>43592</v>
@@ -9953,7 +9962,7 @@
         <v>19</v>
       </c>
       <c r="H176" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I176">
         <v>6</v>
@@ -9982,7 +9991,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B177" s="1">
         <v>43592</v>
@@ -10003,7 +10012,7 @@
         <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I177">
         <v>6</v>
@@ -10032,7 +10041,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B178" s="1">
         <v>43623</v>
@@ -10053,7 +10062,7 @@
         <v>19</v>
       </c>
       <c r="H178" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I178">
         <v>6</v>
@@ -10082,7 +10091,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B179" s="1">
         <v>43623</v>
@@ -10103,7 +10112,7 @@
         <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I179">
         <v>6</v>
@@ -10132,7 +10141,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B180" s="1">
         <v>43684</v>
@@ -10153,7 +10162,7 @@
         <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I180">
         <v>6</v>
@@ -10182,7 +10191,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B181" s="1">
         <v>43684</v>
@@ -10203,7 +10212,7 @@
         <v>19</v>
       </c>
       <c r="H181" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I181">
         <v>6</v>
@@ -10232,7 +10241,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B182" s="1">
         <v>43684</v>
@@ -10253,7 +10262,7 @@
         <v>20</v>
       </c>
       <c r="H182" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I182">
         <v>6</v>
@@ -10282,7 +10291,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B183" s="1">
         <v>43684</v>
@@ -10303,7 +10312,7 @@
         <v>20</v>
       </c>
       <c r="H183" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I183">
         <v>6</v>
@@ -10332,7 +10341,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B184" s="1">
         <v>43684</v>
@@ -10350,10 +10359,10 @@
         <v>43714</v>
       </c>
       <c r="G184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H184" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I184">
         <v>6</v>
@@ -10382,7 +10391,7 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B185" s="1">
         <v>43684</v>
@@ -10400,10 +10409,10 @@
         <v>43714</v>
       </c>
       <c r="G185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H185" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I185">
         <v>6</v>
@@ -10432,7 +10441,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B186" s="1">
         <v>43715</v>
@@ -10453,7 +10462,7 @@
         <v>19</v>
       </c>
       <c r="H186" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I186">
         <v>3</v>
@@ -10482,7 +10491,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B187" s="1">
         <v>43715</v>
@@ -10503,7 +10512,7 @@
         <v>19</v>
       </c>
       <c r="H187" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I187">
         <v>3</v>
@@ -10532,7 +10541,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B188" s="1">
         <v>43715</v>
@@ -10553,7 +10562,7 @@
         <v>20</v>
       </c>
       <c r="H188" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I188">
         <v>3</v>
@@ -10582,7 +10591,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B189" s="1">
         <v>43715</v>
@@ -10603,7 +10612,7 @@
         <v>20</v>
       </c>
       <c r="H189" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I189">
         <v>3</v>
@@ -10632,7 +10641,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B190" s="1">
         <v>43715</v>
@@ -10650,10 +10659,10 @@
         <v>43714</v>
       </c>
       <c r="G190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H190" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I190">
         <v>3</v>
@@ -10682,7 +10691,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B191" s="1">
         <v>43715</v>
@@ -10700,10 +10709,10 @@
         <v>43714</v>
       </c>
       <c r="G191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H191" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I191">
         <v>3</v>
@@ -10732,7 +10741,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B192" s="1">
         <v>43623</v>
@@ -10782,7 +10791,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B193" s="1">
         <v>43623</v>
@@ -10832,7 +10841,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B194" s="1">
         <v>43623</v>
@@ -10882,7 +10891,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B195" s="1">
         <v>43623</v>
@@ -10900,7 +10909,7 @@
         <v>43714</v>
       </c>
       <c r="G195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -10932,7 +10941,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B196" s="1">
         <v>43623</v>
@@ -10950,7 +10959,7 @@
         <v>43714</v>
       </c>
       <c r="G196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -10982,7 +10991,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B197" s="1">
         <v>43623</v>
@@ -11000,7 +11009,7 @@
         <v>43714</v>
       </c>
       <c r="G197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -11032,7 +11041,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B198" s="1">
         <v>43684</v>
@@ -11050,7 +11059,7 @@
         <v>43714</v>
       </c>
       <c r="G198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -11082,7 +11091,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B199" s="1">
         <v>43684</v>
@@ -11100,7 +11109,7 @@
         <v>43714</v>
       </c>
       <c r="G199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -11132,7 +11141,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B200" s="1">
         <v>43684</v>
@@ -11150,7 +11159,7 @@
         <v>43714</v>
       </c>
       <c r="G200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -11182,7 +11191,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B201" s="1">
         <v>43620</v>
@@ -11200,7 +11209,7 @@
         <v>43714</v>
       </c>
       <c r="G201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -11209,16 +11218,16 @@
         <v>11</v>
       </c>
       <c r="J201" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K201" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L201" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M201" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N201">
         <v>6</v>
@@ -11232,7 +11241,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B202" s="1">
         <v>43620</v>
@@ -11250,7 +11259,7 @@
         <v>43714</v>
       </c>
       <c r="G202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -11259,16 +11268,16 @@
         <v>11</v>
       </c>
       <c r="J202" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K202" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L202" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M202" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N202">
         <v>6</v>
@@ -11282,7 +11291,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B203" s="1">
         <v>43620</v>
@@ -11300,7 +11309,7 @@
         <v>43714</v>
       </c>
       <c r="G203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -11309,16 +11318,16 @@
         <v>11</v>
       </c>
       <c r="J203" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K203" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L203" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M203" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N203">
         <v>6</v>
@@ -11332,7 +11341,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B204" s="1">
         <v>43647</v>
@@ -11350,7 +11359,7 @@
         <v>43714</v>
       </c>
       <c r="G204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -11359,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="J204" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K204" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L204" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M204" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N204">
         <v>7</v>
@@ -11382,7 +11391,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B205" s="1">
         <v>43647</v>
@@ -11400,7 +11409,7 @@
         <v>43714</v>
       </c>
       <c r="G205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -11409,16 +11418,16 @@
         <v>11</v>
       </c>
       <c r="J205" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K205" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L205" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M205" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N205">
         <v>7</v>
@@ -11432,7 +11441,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B206" s="1">
         <v>43647</v>
@@ -11450,7 +11459,7 @@
         <v>43714</v>
       </c>
       <c r="G206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -11459,16 +11468,16 @@
         <v>11</v>
       </c>
       <c r="J206" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K206" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L206" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M206" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N206">
         <v>7</v>
@@ -11482,7 +11491,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B207" s="1">
         <v>43648</v>
@@ -11509,16 +11518,16 @@
         <v>11</v>
       </c>
       <c r="J207" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K207" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L207" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M207" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N207">
         <v>7</v>
@@ -11532,7 +11541,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B208" s="1">
         <v>43648</v>
@@ -11559,16 +11568,16 @@
         <v>11</v>
       </c>
       <c r="J208" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K208" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L208" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M208" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N208">
         <v>7</v>
@@ -11582,7 +11591,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B209" s="1">
         <v>43648</v>
@@ -11609,16 +11618,16 @@
         <v>11</v>
       </c>
       <c r="J209" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K209" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L209" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M209" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N209">
         <v>7</v>
@@ -11632,7 +11641,7 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B210" s="1">
         <v>43684</v>
@@ -11650,7 +11659,7 @@
         <v>43714</v>
       </c>
       <c r="G210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -11659,16 +11668,16 @@
         <v>11</v>
       </c>
       <c r="J210" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K210" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L210" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M210" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N210">
         <v>8</v>
@@ -11682,7 +11691,7 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B211" s="1">
         <v>43684</v>
@@ -11700,7 +11709,7 @@
         <v>43714</v>
       </c>
       <c r="G211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -11709,16 +11718,16 @@
         <v>11</v>
       </c>
       <c r="J211" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K211" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L211" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M211" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N211">
         <v>8</v>
@@ -11732,7 +11741,7 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B212" s="1">
         <v>43684</v>
@@ -11750,7 +11759,7 @@
         <v>43714</v>
       </c>
       <c r="G212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -11759,16 +11768,16 @@
         <v>11</v>
       </c>
       <c r="J212" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K212" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L212" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M212" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N212">
         <v>8</v>
@@ -11782,7 +11791,7 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B213" s="1">
         <v>43685</v>
@@ -11809,16 +11818,16 @@
         <v>11</v>
       </c>
       <c r="J213" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K213" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L213" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M213" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N213">
         <v>8</v>
@@ -11832,7 +11841,7 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B214" s="1">
         <v>43685</v>
@@ -11859,16 +11868,16 @@
         <v>11</v>
       </c>
       <c r="J214" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K214" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L214" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M214" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N214">
         <v>8</v>
@@ -11882,7 +11891,7 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B215" s="1">
         <v>43685</v>
@@ -11909,16 +11918,16 @@
         <v>11</v>
       </c>
       <c r="J215" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K215" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L215" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M215" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N215">
         <v>8</v>
@@ -11932,7 +11941,7 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B216" s="1">
         <v>43685</v>
@@ -11950,7 +11959,7 @@
         <v>43714</v>
       </c>
       <c r="G216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -11959,16 +11968,16 @@
         <v>11</v>
       </c>
       <c r="J216" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K216" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L216" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M216" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N216">
         <v>8</v>
@@ -11982,7 +11991,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B217" s="1">
         <v>43685</v>
@@ -12000,7 +12009,7 @@
         <v>43714</v>
       </c>
       <c r="G217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -12009,16 +12018,16 @@
         <v>11</v>
       </c>
       <c r="J217" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K217" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L217" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M217" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N217">
         <v>8</v>
@@ -12032,7 +12041,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B218" s="1">
         <v>43685</v>
@@ -12050,7 +12059,7 @@
         <v>43714</v>
       </c>
       <c r="G218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H218">
         <v>3</v>
@@ -12059,16 +12068,16 @@
         <v>11</v>
       </c>
       <c r="J218" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K218" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L218" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M218" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N218">
         <v>8</v>
@@ -12082,7 +12091,7 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B219" s="1">
         <v>43705</v>
@@ -12100,7 +12109,7 @@
         <v>43714</v>
       </c>
       <c r="G219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -12109,16 +12118,16 @@
         <v>11</v>
       </c>
       <c r="J219" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K219" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L219" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M219" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N219">
         <v>8</v>
@@ -12132,7 +12141,7 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B220" s="1">
         <v>43705</v>
@@ -12150,7 +12159,7 @@
         <v>43714</v>
       </c>
       <c r="G220" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -12159,16 +12168,16 @@
         <v>11</v>
       </c>
       <c r="J220" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K220" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L220" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M220" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N220">
         <v>8</v>
@@ -12182,7 +12191,7 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B221" s="1">
         <v>43705</v>
@@ -12200,7 +12209,7 @@
         <v>43714</v>
       </c>
       <c r="G221" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -12209,16 +12218,16 @@
         <v>11</v>
       </c>
       <c r="J221" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K221" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L221" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M221" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N221">
         <v>8</v>
@@ -12232,7 +12241,7 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B222" s="1">
         <v>43705</v>
@@ -12259,16 +12268,16 @@
         <v>11</v>
       </c>
       <c r="J222" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K222" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L222" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M222" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N222">
         <v>8</v>
@@ -12282,7 +12291,7 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B223" s="1">
         <v>43705</v>
@@ -12309,16 +12318,16 @@
         <v>11</v>
       </c>
       <c r="J223" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K223" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L223" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M223" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N223">
         <v>8</v>
@@ -12332,7 +12341,7 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B224" s="1">
         <v>43705</v>
@@ -12359,16 +12368,16 @@
         <v>11</v>
       </c>
       <c r="J224" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K224" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L224" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M224" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N224">
         <v>8</v>
@@ -12382,7 +12391,7 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B225" s="1">
         <v>43735</v>
@@ -12409,16 +12418,16 @@
         <v>11</v>
       </c>
       <c r="J225" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K225" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L225" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M225" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N225">
         <v>9</v>
@@ -12432,7 +12441,7 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B226" s="1">
         <v>43735</v>
@@ -12459,16 +12468,16 @@
         <v>11</v>
       </c>
       <c r="J226" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K226" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L226" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M226" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N226">
         <v>9</v>
@@ -12482,7 +12491,7 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B227" s="1">
         <v>43735</v>
@@ -12509,16 +12518,16 @@
         <v>11</v>
       </c>
       <c r="J227" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K227" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L227" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M227" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N227">
         <v>9</v>
@@ -12532,7 +12541,7 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B228" s="1">
         <v>43735</v>
@@ -12550,7 +12559,7 @@
         <v>43714</v>
       </c>
       <c r="G228" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -12559,16 +12568,16 @@
         <v>11</v>
       </c>
       <c r="J228" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K228" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L228" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M228" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N228">
         <v>9</v>
@@ -12582,7 +12591,7 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B229" s="1">
         <v>43735</v>
@@ -12600,7 +12609,7 @@
         <v>43714</v>
       </c>
       <c r="G229" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -12609,16 +12618,16 @@
         <v>11</v>
       </c>
       <c r="J229" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K229" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L229" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M229" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N229">
         <v>9</v>
@@ -12632,7 +12641,7 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B230" s="1">
         <v>43735</v>
@@ -12650,7 +12659,7 @@
         <v>43714</v>
       </c>
       <c r="G230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -12659,16 +12668,16 @@
         <v>11</v>
       </c>
       <c r="J230" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K230" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L230" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M230" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N230">
         <v>9</v>
@@ -12701,7 +12710,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -12754,148 +12763,148 @@
     </row>
     <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="O4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
